--- a/Translation Script/Map118.xlsx
+++ b/Translation Script/Map118.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="464">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="501">
   <si>
     <t>自動実行</t>
   </si>
@@ -801,6 +801,11 @@
 ・・・でも・・・しょうがないのかなぁ・・・）</t>
   </si>
   <si>
+    <t>\n&lt;Ako&gt;(I don't really care who wins…
+...
+But... Is this the only way…)</t>
+  </si>
+  <si>
     <t>\n&lt;アーコ&gt;あたしは中立。
 だからお金くれる方の味方。というかお金の味方。
 うん。</t>
@@ -808,6 +813,10 @@
   <si>
     <t>\n&lt;Ako&gt;あたしは中立。
 だからお金くれる方の味方。というかお金の味方。うん。</t>
+  </si>
+  <si>
+    <t>\n&lt;Ako&gt;I'm a neutral party.
+I side with whoever's got money.\nI'm a buddy for hire. Yeah.</t>
   </si>
   <si>
     <t>\n&lt;アーコ&gt;分かった。売ってあげる。
@@ -942,6 +951,11 @@
 2階はダメよ。私の部屋があるもの。</t>
   </si>
   <si>
+    <t>\n&lt;\n[3]&gt;Hold it right there.
+There's nothing on the second floor.
+Just my room.</t>
+  </si>
+  <si>
     <t>\n&lt;\n[3]&gt;そうねぇ。
 どうしても通りたいって言うなら・・・
 ちょっとしたゲームをしましょ。</t>
@@ -951,6 +965,11 @@
 どうしても通りたいって言うなら・・・ちょっとしたゲームをしましょ。</t>
   </si>
   <si>
+    <t>\n&lt;\n[3]&gt;OK.
+If you really want to get by...
+Let's play a little game.</t>
+  </si>
+  <si>
     <t>\n&lt;\n[3]&gt;あんたが後ろから私を突いて、射精を我慢するの♥
 ゆっくり奥まで入れて抜くだけ♥
 そうね、3回でいいわ。</t>
@@ -960,6 +979,10 @@
 ゆっくり奥まで入れて抜くだけ♥そうね、3回でいいわ。</t>
   </si>
   <si>
+    <t>\n&lt;\n[3]&gt;You're going to poke me from behind, and try to hold
+back your cum♥ Slowly put it in all the way,\nthen back out♥ 3 times should be good.</t>
+  </si>
+  <si>
     <t>\n&lt;\n[3]&gt;3回入れて射精しなかったらあんたの勝ち。
 我慢できずにイっちゃったらあんたの負け。
 どう？これぐらいなら余裕でしょ？</t>
@@ -969,6 +992,11 @@
 我慢できずにイっちゃったらあんたの負け。どう？これぐらいなら余裕でしょ？</t>
   </si>
   <si>
+    <t>\n&lt;\n[3]&gt;If you don't ejaculate after 3 thrusts, then you win.
+If you can't hold it back, then you lose.
+Hm? Is that fair?</t>
+  </si>
+  <si>
     <t>\n&lt;\n[3]&gt;たったの3回、おちんちんをオマンコに入れるだけよ。
 私からは手を出さない。
 超簡単なゲーム♥大サービスよ。</t>
@@ -978,6 +1006,11 @@
 私からは手を出さない。超簡単なゲーム♥大サービスよ。</t>
   </si>
   <si>
+    <t>\n&lt;\n[3]&gt;Just put your dick in my pussy 3 times.
+Don't take your hands off of me.
+Super simple game♥</t>
+  </si>
+  <si>
     <t>\n&lt;\n[3]&gt;ほらおいで♥
 大丈夫。たったの3回よ♥
 まさか、怖気づいちゃった訳じゃないわよねぇ？くすくす♥</t>
@@ -987,6 +1020,11 @@
 大丈夫。たったの3回よ♥まさか、怖気づいちゃった訳じゃないわよねぇ？くすくす♥</t>
   </si>
   <si>
+    <t>\n&lt;\n[3]&gt;Come here♥ It's all right. Just 3 times♥
+What, you're not scared, are you?
+Hee hee♥</t>
+  </si>
+  <si>
     <t>\n&lt;\n[3]&gt;あはっ♥どうしたの驚いた顔しちゃって♥
 そんなに気持ちよかった？
 ほら、あと2回♥がんばれ♥がんばれ♥</t>
@@ -996,6 +1034,11 @@
 そんなに気持ちよかった？ほら、あと2回♥がんばれ♥がんばれ♥</t>
   </si>
   <si>
+    <t>\n&lt;\n[3]&gt;Ahaa♥ What's wrong? You look so surprised♥
+Didn't it feel good? Hora, just two more times♥
+Give it your best♥</t>
+  </si>
+  <si>
     <t>\n&lt;\n[3]&gt;息が荒いわよ？必死に耐えてるの？
 イキそうならやめてもいいのよ♥
 それとも、私に中出しする？くすくす♥</t>
@@ -1005,6 +1048,11 @@
 イキそうならやめてもいいのよ♥それとも、私に中出しする？くすくす♥</t>
   </si>
   <si>
+    <t>\n&lt;\n[3]&gt;Are you out of breath? Can you barely stand it?
+You can stop if you're about to cum♥ Or will you 
+cum inside me? Hee hee♥</t>
+  </si>
+  <si>
     <t>\n&lt;\n[3]&gt;あははは！その必死な顔♥超ウケる♥
 でもまぁ、あんたの勝ちよ♥
 ぷ・・・くくく♥</t>
@@ -1014,10 +1062,21 @@
 でもまぁ、あんたの勝ちよ♥ぷ・・・くくく♥</t>
   </si>
   <si>
+    <t>\n&lt;\n[3]&gt;Ahahaha! That desperate look on your face♥ So good♥
+But hey, you won♥
+Fu... Hee hee hee♥</t>
+  </si>
+  <si>
     <t>挿入</t>
   </si>
   <si>
+    <t>Insert</t>
+  </si>
+  <si>
     <t>やめる</t>
+  </si>
+  <si>
+    <t>Stop</t>
   </si>
   <si>
     <t>\n&lt;\n[3]&gt;あはっ。
@@ -1029,6 +1088,11 @@
 抜いたのに限界が来ちゃってたみたい♥お尻に熱いのがかかってるわ♥くすくす♥</t>
   </si>
   <si>
+    <t>\n&lt;\n[3]&gt;Ahaaa.
+It seems you reached you limit even after
+pulling out♥ My ass feels all hot now♥ Hee hee♥</t>
+  </si>
+  <si>
     <t>\n&lt;\n[3]&gt;やめるの？
 イキそうになっちゃった？
 じゃあゲームはここまでね。</t>
@@ -1038,12 +1102,24 @@
 イキそうになっちゃった？じゃあゲームはここまでね。</t>
   </si>
   <si>
+    <t>\n&lt;\n[3]&gt;Are you gonna stop? Are you about to cum?
+So the game's about to end.</t>
+  </si>
+  <si>
     <t>\n&lt;\n[1]&gt;あぁ！！ダメ！！
 あぁぁぁぁぁぁぁ！！！</t>
   </si>
   <si>
+    <t>\n&lt;\n[1]&gt;Ahhh! C-can't!!
+Aaaaaaaaahhhh!!!</t>
+  </si>
+  <si>
     <t>\n&lt;\n[1]&gt;うぁ！！や、やめ！！！
 あぁぁぁぁぁぁぁ！！！</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[1]&gt;Uwaah!! S-stop!!!
+Aaaaaaaaahhh!!!</t>
   </si>
   <si>
     <t>\n&lt;\n[3]&gt;ん？なーに？
@@ -1055,6 +1131,11 @@
 ゲームは終わりって言ったじゃない。私が何もしないのはゲームの時だけよ？</t>
   </si>
   <si>
+    <t>\n&lt;\n[3]&gt;Mmm? What's this? 
+Sounds like the game is over.
+I didn't move a muscle, and it's still all over?</t>
+  </si>
+  <si>
     <t>\n&lt;\n[3]&gt;あはっ♥お尻にもたれかかって。
 くすくす♥
 そんなに気持ちよかったの？</t>
@@ -1064,8 +1145,17 @@
 くすくす♥そんなに気持ちよかったの？</t>
   </si>
   <si>
+    <t>\n&lt;\n[3]&gt;Ahaa♥ You're leaning against my butt.
+Hee hee♥
+Did it really feel so good?</t>
+  </si>
+  <si>
     <t>\n&lt;\n[3]&gt;じゃ、通っていいわよ。
 約束だものね。</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[3]&gt;Well then, you may pass.
+A promise is a promise.</t>
   </si>
   <si>
     <t>\n&lt;\n[3]&gt;たったの3回入れただけでイキそうになってるあんたが
@@ -1077,6 +1167,10 @@
 この先無事に脱出できるとは思えないけど♥ま、精々楽しませてね♥</t>
   </si>
   <si>
+    <t>\n&lt;\n[3]&gt;You're about to come just from 3 pumps. I don't
+think you're gonna make it much further than here♥\nKeep me entertained here, why don't you♥</t>
+  </si>
+  <si>
     <t>\n&lt;\n[3]&gt;雑魚♥
 3回すら我慢できないの？くすくす♥
 じゃ、また挑戦したくなったら来なさい。</t>
@@ -1086,14 +1180,28 @@
 3回すら我慢できないの？くすくす♥じゃ、また挑戦したくなったら来なさい。</t>
   </si>
   <si>
+    <t>\n&lt;\n[3]&gt;Weakling♥
+Can't even endure 3 pumps? Hee hee♥
+Well, come back if you want to try again.</t>
+  </si>
+  <si>
     <t>ツタが入口を塞いでいる・・・
 武器があればなんとか出来るかもしれない。</t>
   </si>
   <si>
+    <t>Ivy is blocking the entrance… You might be able to do something if you had a weapon.</t>
+  </si>
+  <si>
     <t>障壁</t>
   </si>
   <si>
+    <t>Barrier</t>
+  </si>
+  <si>
     <t>半透明な壁が階段を塞いでいる・・・</t>
+  </si>
+  <si>
+    <t>A translucent barrier blocks the stairway…</t>
   </si>
   <si>
     <t>EV058</t>
@@ -1563,16 +1671,31 @@
 ・鴨もも肉のコンフィ</t>
   </si>
   <si>
+    <t>Today's menu:
+・Green onion vinaigrette
+・Duck confit</t>
+  </si>
+  <si>
     <t>\n&lt;\n[1]&gt;（ビネグレット？
 コンフィ？
 ・・・？？？）</t>
   </si>
   <si>
+    <t>\n&lt;\n[1]&gt;(Vinaigrette?
+Confit?
+...???)</t>
+  </si>
+  <si>
     <t>\n&lt;\n[1]&gt;（あにきに持っていったら喜ぶかな・・・
 いや、飲んでる場合じゃないか。
 やめとこ。）</t>
   </si>
   <si>
+    <t>\n&lt;\n[1]&gt;(I wonder if brother would like me to bring him
+some of this... No, now's not the time to be drinking.
+I'd better not.)</t>
+  </si>
+  <si>
     <t>\n&lt;\n[1]&gt;（ひと口だけなら・・・
 いや、ダメだ。
 飲んでる場合じゃない・・・）</t>
@@ -1586,25 +1709,48 @@
 頭おかしいんじゃないのマジで。</t>
   </si>
   <si>
+    <t>Someone tell that idiot Shina that the chandelier is not
+for jumping on. She kicks up a ton of dust every time she jumps on it.
+Seriously, she's insane.</t>
+  </si>
+  <si>
     <t>私が言っても「お前にはこれ出来んにゃぁ～」とか
 意味不明な方向で煽ってくるから腹立つのよね。
 言い聞かせておいてね。</t>
   </si>
   <si>
+    <t>Then she says 「You can't do this, nya～」, to provoke me,
+as if that's the reason I'm angry.
+I'm telling you, it drives me crazy.</t>
+  </si>
+  <si>
     <t>天使の像・・・</t>
   </si>
   <si>
+    <t>An angel statue…</t>
+  </si>
+  <si>
     <t>もう何もない・・・</t>
   </si>
   <si>
     <t>時計が時を刻んでいる・・・</t>
   </si>
   <si>
+    <t>The clock ticks away…</t>
+  </si>
+  <si>
     <t>\n&lt;\n[1]&gt;（どれだけの時間、ここにいるんだろう・・・）</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[1]&gt;(I wonder how long I'll be trapped here...)</t>
   </si>
   <si>
     <t>\n&lt;\n[1]&gt;（時間の感覚がおかしくなる・・・
 早くここから抜け出さないと・・・）</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[1]&gt;(I'm losing my sense of time...
+I need to get out of here soon...)</t>
   </si>
   <si>
     <t>時計は故障している・・・</t>
@@ -1724,13 +1870,27 @@
 ページがバラバラに散らばっちゃった！</t>
   </si>
   <si>
+    <t>Shina was sharpening her claws with a book,
+and it looked like it was my diary!
+The pages were scattering everywhere!</t>
+  </si>
+  <si>
     <t>でも怒らないであげて！
 文字が読めないから、どうでもいい本だと思ったんだって！
 ページはまた集めればいいから。</t>
   </si>
   <si>
+    <t>I mustn't get angry though! She can't read, so she
+didn't know how important the book was! I just need
+to collect the pages again.</t>
+  </si>
+  <si>
     <t>バルコニーで飛んでいっちゃったのはもう無理かもだけど。
 どこかに引っかかってたらいいな。</t>
+  </si>
+  <si>
+    <t>It may not be possible for me to fly off of the
+balcony. It would be nice to visit someplace else.</t>
   </si>
   <si>
     <t>EV118</t>
@@ -2165,7 +2325,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:B308"/>
+  <dimension ref="A1:C308"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -2173,7 +2333,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2181,7 +2341,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -2189,7 +2349,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:3">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -2197,7 +2357,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:3">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -2205,7 +2365,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:3">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -2213,7 +2373,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:3">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -2221,7 +2381,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:3">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -2229,7 +2389,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:3">
       <c r="A8" t="s">
         <v>11</v>
       </c>
@@ -2237,7 +2397,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:3">
       <c r="A9" t="s">
         <v>13</v>
       </c>
@@ -2245,7 +2405,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:3">
       <c r="A10" t="s">
         <v>15</v>
       </c>
@@ -2253,7 +2413,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" spans="1:3">
       <c r="A11" t="s">
         <v>17</v>
       </c>
@@ -2261,7 +2421,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
+    <row r="12" spans="1:3">
       <c r="A12" t="s">
         <v>19</v>
       </c>
@@ -2269,7 +2429,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
+    <row r="13" spans="1:3">
       <c r="A13" t="s">
         <v>21</v>
       </c>
@@ -2277,7 +2437,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
+    <row r="14" spans="1:3">
       <c r="A14" t="s">
         <v>23</v>
       </c>
@@ -2285,7 +2445,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="15" spans="1:2">
+    <row r="15" spans="1:3">
       <c r="A15" t="s">
         <v>25</v>
       </c>
@@ -2293,7 +2453,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="16" spans="1:2">
+    <row r="16" spans="1:3">
       <c r="A16" t="s">
         <v>27</v>
       </c>
@@ -2301,7 +2461,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
+    <row r="17" spans="1:3">
       <c r="A17" t="s">
         <v>29</v>
       </c>
@@ -2309,7 +2469,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="18" spans="1:2">
+    <row r="18" spans="1:3">
       <c r="A18" t="s">
         <v>31</v>
       </c>
@@ -2317,7 +2477,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="19" spans="1:2">
+    <row r="19" spans="1:3">
       <c r="A19" t="s">
         <v>33</v>
       </c>
@@ -2325,7 +2485,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="20" spans="1:2">
+    <row r="20" spans="1:3">
       <c r="A20" t="s">
         <v>35</v>
       </c>
@@ -2333,7 +2493,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="21" spans="1:2">
+    <row r="21" spans="1:3">
       <c r="A21" t="s">
         <v>36</v>
       </c>
@@ -2341,7 +2501,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="22" spans="1:2">
+    <row r="22" spans="1:3">
       <c r="A22" t="s">
         <v>37</v>
       </c>
@@ -2349,7 +2509,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="23" spans="1:2">
+    <row r="23" spans="1:3">
       <c r="A23" t="s">
         <v>38</v>
       </c>
@@ -2357,7 +2517,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="24" spans="1:2">
+    <row r="24" spans="1:3">
       <c r="A24" t="s">
         <v>40</v>
       </c>
@@ -2365,12 +2525,12 @@
         <v>41</v>
       </c>
     </row>
-    <row r="25" spans="1:2">
+    <row r="25" spans="1:3">
       <c r="A25" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="26" spans="1:2">
+    <row r="26" spans="1:3">
       <c r="A26" t="s">
         <v>43</v>
       </c>
@@ -2378,7 +2538,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="27" spans="1:2">
+    <row r="27" spans="1:3">
       <c r="A27" t="s">
         <v>45</v>
       </c>
@@ -2386,7 +2546,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="28" spans="1:2">
+    <row r="28" spans="1:3">
       <c r="A28" t="s">
         <v>47</v>
       </c>
@@ -2394,7 +2554,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="29" spans="1:2">
+    <row r="29" spans="1:3">
       <c r="A29" t="s">
         <v>49</v>
       </c>
@@ -2402,7 +2562,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="30" spans="1:2">
+    <row r="30" spans="1:3">
       <c r="A30" t="s">
         <v>51</v>
       </c>
@@ -2410,7 +2570,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="31" spans="1:2">
+    <row r="31" spans="1:3">
       <c r="A31" t="s">
         <v>53</v>
       </c>
@@ -2418,7 +2578,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="32" spans="1:2">
+    <row r="32" spans="1:3">
       <c r="A32" t="s">
         <v>55</v>
       </c>
@@ -2426,7 +2586,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="33" spans="1:2">
+    <row r="33" spans="1:3">
       <c r="A33" t="s">
         <v>57</v>
       </c>
@@ -2434,7 +2594,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="34" spans="1:2">
+    <row r="34" spans="1:3">
       <c r="A34" t="s">
         <v>59</v>
       </c>
@@ -2442,7 +2602,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="35" spans="1:2">
+    <row r="35" spans="1:3">
       <c r="A35" t="s">
         <v>61</v>
       </c>
@@ -2450,7 +2610,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="36" spans="1:2">
+    <row r="36" spans="1:3">
       <c r="A36" t="s">
         <v>63</v>
       </c>
@@ -2458,7 +2618,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="37" spans="1:2">
+    <row r="37" spans="1:3">
       <c r="A37" t="s">
         <v>65</v>
       </c>
@@ -2466,7 +2626,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="38" spans="1:2">
+    <row r="38" spans="1:3">
       <c r="A38" t="s">
         <v>67</v>
       </c>
@@ -2474,7 +2634,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="39" spans="1:2">
+    <row r="39" spans="1:3">
       <c r="A39" t="s">
         <v>69</v>
       </c>
@@ -2482,7 +2642,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="40" spans="1:2">
+    <row r="40" spans="1:3">
       <c r="A40" t="s">
         <v>71</v>
       </c>
@@ -2490,7 +2650,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="41" spans="1:2">
+    <row r="41" spans="1:3">
       <c r="A41" t="s">
         <v>73</v>
       </c>
@@ -2498,7 +2658,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="42" spans="1:2">
+    <row r="42" spans="1:3">
       <c r="A42" t="s">
         <v>75</v>
       </c>
@@ -2506,7 +2666,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="43" spans="1:2">
+    <row r="43" spans="1:3">
       <c r="A43" t="s">
         <v>76</v>
       </c>
@@ -2514,7 +2674,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="44" spans="1:2">
+    <row r="44" spans="1:3">
       <c r="A44" t="s">
         <v>78</v>
       </c>
@@ -2522,7 +2682,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="45" spans="1:2">
+    <row r="45" spans="1:3">
       <c r="A45" t="s">
         <v>80</v>
       </c>
@@ -2530,7 +2690,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="46" spans="1:2">
+    <row r="46" spans="1:3">
       <c r="A46" t="s">
         <v>82</v>
       </c>
@@ -2538,7 +2698,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="47" spans="1:2">
+    <row r="47" spans="1:3">
       <c r="A47" t="s">
         <v>83</v>
       </c>
@@ -2546,7 +2706,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="48" spans="1:2">
+    <row r="48" spans="1:3">
       <c r="A48" t="s">
         <v>84</v>
       </c>
@@ -2554,7 +2714,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="49" spans="1:2">
+    <row r="49" spans="1:3">
       <c r="A49" t="s">
         <v>86</v>
       </c>
@@ -2562,7 +2722,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="50" spans="1:2">
+    <row r="50" spans="1:3">
       <c r="A50" t="s">
         <v>88</v>
       </c>
@@ -2570,7 +2730,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="51" spans="1:2">
+    <row r="51" spans="1:3">
       <c r="A51" t="s">
         <v>90</v>
       </c>
@@ -2578,7 +2738,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="52" spans="1:2">
+    <row r="52" spans="1:3">
       <c r="A52" t="s">
         <v>92</v>
       </c>
@@ -2586,7 +2746,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="53" spans="1:2">
+    <row r="53" spans="1:3">
       <c r="A53" t="s">
         <v>94</v>
       </c>
@@ -2594,7 +2754,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="54" spans="1:2">
+    <row r="54" spans="1:3">
       <c r="A54" t="s">
         <v>96</v>
       </c>
@@ -2602,7 +2762,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="55" spans="1:2">
+    <row r="55" spans="1:3">
       <c r="A55" t="s">
         <v>98</v>
       </c>
@@ -2610,7 +2770,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="56" spans="1:2">
+    <row r="56" spans="1:3">
       <c r="A56" t="s">
         <v>100</v>
       </c>
@@ -2618,7 +2778,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="57" spans="1:2">
+    <row r="57" spans="1:3">
       <c r="A57" t="s">
         <v>102</v>
       </c>
@@ -2626,7 +2786,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="58" spans="1:2">
+    <row r="58" spans="1:3">
       <c r="A58" t="s">
         <v>104</v>
       </c>
@@ -2634,7 +2794,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="59" spans="1:2">
+    <row r="59" spans="1:3">
       <c r="A59" t="s">
         <v>106</v>
       </c>
@@ -2642,7 +2802,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="60" spans="1:2">
+    <row r="60" spans="1:3">
       <c r="A60" t="s">
         <v>108</v>
       </c>
@@ -2650,7 +2810,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="61" spans="1:2">
+    <row r="61" spans="1:3">
       <c r="A61" t="s">
         <v>110</v>
       </c>
@@ -2658,7 +2818,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="62" spans="1:2">
+    <row r="62" spans="1:3">
       <c r="A62" t="s">
         <v>112</v>
       </c>
@@ -2666,7 +2826,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="63" spans="1:2">
+    <row r="63" spans="1:3">
       <c r="A63" t="s">
         <v>114</v>
       </c>
@@ -2674,7 +2834,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="64" spans="1:2">
+    <row r="64" spans="1:3">
       <c r="A64" t="s">
         <v>116</v>
       </c>
@@ -2682,7 +2842,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="65" spans="1:2">
+    <row r="65" spans="1:3">
       <c r="A65" t="s">
         <v>118</v>
       </c>
@@ -2690,7 +2850,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="66" spans="1:2">
+    <row r="66" spans="1:3">
       <c r="A66" t="s">
         <v>120</v>
       </c>
@@ -2698,7 +2858,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="67" spans="1:2">
+    <row r="67" spans="1:3">
       <c r="A67" t="s">
         <v>122</v>
       </c>
@@ -2706,7 +2866,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="68" spans="1:2">
+    <row r="68" spans="1:3">
       <c r="A68" t="s">
         <v>124</v>
       </c>
@@ -2714,7 +2874,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="69" spans="1:2">
+    <row r="69" spans="1:3">
       <c r="A69" t="s">
         <v>126</v>
       </c>
@@ -2722,7 +2882,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="70" spans="1:2">
+    <row r="70" spans="1:3">
       <c r="A70" t="s">
         <v>128</v>
       </c>
@@ -2730,7 +2890,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="71" spans="1:2">
+    <row r="71" spans="1:3">
       <c r="A71" t="s">
         <v>130</v>
       </c>
@@ -2738,7 +2898,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="72" spans="1:2">
+    <row r="72" spans="1:3">
       <c r="A72" t="s">
         <v>132</v>
       </c>
@@ -2746,7 +2906,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="73" spans="1:2">
+    <row r="73" spans="1:3">
       <c r="A73" t="s">
         <v>134</v>
       </c>
@@ -2754,7 +2914,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="74" spans="1:2">
+    <row r="74" spans="1:3">
       <c r="A74" t="s">
         <v>136</v>
       </c>
@@ -2762,7 +2922,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="75" spans="1:2">
+    <row r="75" spans="1:3">
       <c r="A75" t="s">
         <v>138</v>
       </c>
@@ -2770,7 +2930,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="76" spans="1:2">
+    <row r="76" spans="1:3">
       <c r="A76" t="s">
         <v>140</v>
       </c>
@@ -2778,7 +2938,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="77" spans="1:2">
+    <row r="77" spans="1:3">
       <c r="A77" t="s">
         <v>142</v>
       </c>
@@ -2786,7 +2946,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="78" spans="1:2">
+    <row r="78" spans="1:3">
       <c r="A78" t="s">
         <v>144</v>
       </c>
@@ -2794,7 +2954,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="79" spans="1:2">
+    <row r="79" spans="1:3">
       <c r="A79" t="s">
         <v>146</v>
       </c>
@@ -2802,7 +2962,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="80" spans="1:2">
+    <row r="80" spans="1:3">
       <c r="A80" t="s">
         <v>148</v>
       </c>
@@ -2810,7 +2970,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="81" spans="1:2">
+    <row r="81" spans="1:3">
       <c r="A81" t="s">
         <v>149</v>
       </c>
@@ -2818,7 +2978,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="82" spans="1:2">
+    <row r="82" spans="1:3">
       <c r="A82" t="s">
         <v>151</v>
       </c>
@@ -2826,7 +2986,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="83" spans="1:2">
+    <row r="83" spans="1:3">
       <c r="A83" t="s">
         <v>153</v>
       </c>
@@ -2834,7 +2994,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="84" spans="1:2">
+    <row r="84" spans="1:3">
       <c r="A84" t="s">
         <v>155</v>
       </c>
@@ -2842,7 +3002,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="85" spans="1:2">
+    <row r="85" spans="1:3">
       <c r="A85" t="s">
         <v>157</v>
       </c>
@@ -2850,7 +3010,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="86" spans="1:2">
+    <row r="86" spans="1:3">
       <c r="A86" t="s">
         <v>159</v>
       </c>
@@ -2858,7 +3018,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="87" spans="1:2">
+    <row r="87" spans="1:3">
       <c r="A87" t="s">
         <v>161</v>
       </c>
@@ -2866,7 +3026,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="88" spans="1:2">
+    <row r="88" spans="1:3">
       <c r="A88" t="s">
         <v>163</v>
       </c>
@@ -2874,7 +3034,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="89" spans="1:2">
+    <row r="89" spans="1:3">
       <c r="A89" t="s">
         <v>165</v>
       </c>
@@ -2882,7 +3042,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="90" spans="1:2">
+    <row r="90" spans="1:3">
       <c r="A90" t="s">
         <v>167</v>
       </c>
@@ -2890,7 +3050,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="91" spans="1:2">
+    <row r="91" spans="1:3">
       <c r="A91" t="s">
         <v>169</v>
       </c>
@@ -2898,7 +3058,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="92" spans="1:2">
+    <row r="92" spans="1:3">
       <c r="A92" t="s">
         <v>171</v>
       </c>
@@ -2906,7 +3066,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="93" spans="1:2">
+    <row r="93" spans="1:3">
       <c r="A93" t="s">
         <v>173</v>
       </c>
@@ -2914,7 +3074,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="94" spans="1:2">
+    <row r="94" spans="1:3">
       <c r="A94" t="s">
         <v>175</v>
       </c>
@@ -2922,7 +3082,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="95" spans="1:2">
+    <row r="95" spans="1:3">
       <c r="A95" t="s">
         <v>177</v>
       </c>
@@ -2930,7 +3090,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="96" spans="1:2">
+    <row r="96" spans="1:3">
       <c r="A96" t="s">
         <v>179</v>
       </c>
@@ -2938,7 +3098,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="97" spans="1:2">
+    <row r="97" spans="1:3">
       <c r="A97" t="s">
         <v>181</v>
       </c>
@@ -2946,7 +3106,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="98" spans="1:2">
+    <row r="98" spans="1:3">
       <c r="A98" t="s">
         <v>183</v>
       </c>
@@ -2954,7 +3114,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="99" spans="1:2">
+    <row r="99" spans="1:3">
       <c r="A99" t="s">
         <v>185</v>
       </c>
@@ -2962,7 +3122,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="100" spans="1:2">
+    <row r="100" spans="1:3">
       <c r="A100" t="s">
         <v>187</v>
       </c>
@@ -2970,7 +3130,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="101" spans="1:2">
+    <row r="101" spans="1:3">
       <c r="A101" t="s">
         <v>189</v>
       </c>
@@ -2978,1636 +3138,1753 @@
         <v>190</v>
       </c>
     </row>
-    <row r="102" spans="1:2">
+    <row r="102" spans="1:3">
       <c r="A102" t="s">
         <v>191</v>
       </c>
       <c r="B102" t="s">
         <v>192</v>
       </c>
-    </row>
-    <row r="103" spans="1:2">
+      <c r="C102" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3">
       <c r="A103" t="s">
         <v>193</v>
       </c>
       <c r="B103" t="s">
         <v>194</v>
       </c>
-    </row>
-    <row r="104" spans="1:2">
+      <c r="C103" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3">
       <c r="A104" t="s">
         <v>195</v>
       </c>
       <c r="B104" t="s">
         <v>196</v>
       </c>
-    </row>
-    <row r="105" spans="1:2">
+      <c r="C104" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3">
       <c r="A105" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B105" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="106" spans="1:2">
+        <v>199</v>
+      </c>
+      <c r="C105" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3">
       <c r="A106" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="B106" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="107" spans="1:2">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3">
       <c r="A107" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="B107" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="108" spans="1:2">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3">
       <c r="A108" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="B108" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="109" spans="1:2">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3">
       <c r="A109" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="B109" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="110" spans="1:2">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3">
       <c r="A110" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="B110" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="111" spans="1:2">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3">
       <c r="A111" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="B111" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="112" spans="1:2">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3">
       <c r="A112" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="B112" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="113" spans="1:2">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3">
       <c r="A113" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="B113" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="114" spans="1:2">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3">
       <c r="A114" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="B114" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="115" spans="1:2">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3">
       <c r="A115" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="B115" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="116" spans="1:2">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3">
       <c r="A116" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="B116" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="117" spans="1:2">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3">
       <c r="A117" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="B117" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="118" spans="1:2">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3">
       <c r="A118" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="B118" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="119" spans="1:2">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3">
       <c r="A119" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="B119" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="120" spans="1:2">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3">
       <c r="A120" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="B120" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="121" spans="1:2">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3">
       <c r="A121" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="B121" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="122" spans="1:2">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3">
       <c r="A122" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="B122" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="123" spans="1:2">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3">
       <c r="A123" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="B123" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="124" spans="1:2">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3">
       <c r="A124" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="B124" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="125" spans="1:2">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3">
       <c r="A125" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="B125" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="126" spans="1:2">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3">
       <c r="A126" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="B126" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="127" spans="1:2">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3">
       <c r="A127" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="B127" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="128" spans="1:2">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3">
       <c r="A128" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="B128" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="129" spans="1:2">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3">
       <c r="A129" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="B129" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="130" spans="1:2">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3">
       <c r="A130" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="131" spans="1:2">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3">
       <c r="A131" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="B131" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="132" spans="1:2">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3">
       <c r="A132" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="133" spans="1:2">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3">
       <c r="A133" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="134" spans="1:2">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3">
       <c r="A134" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="B134" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="135" spans="1:2">
+        <v>238</v>
+      </c>
+      <c r="C134" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3">
       <c r="A135" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="B135" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="136" spans="1:2">
+        <v>241</v>
+      </c>
+      <c r="C135" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3">
       <c r="A136" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="B136" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="137" spans="1:2">
+        <v>244</v>
+      </c>
+      <c r="C136" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3">
       <c r="A137" t="s">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="B137" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="138" spans="1:2">
+        <v>247</v>
+      </c>
+      <c r="C137" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3">
       <c r="A138" t="s">
-        <v>243</v>
+        <v>249</v>
       </c>
       <c r="B138" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="139" spans="1:2">
+        <v>250</v>
+      </c>
+      <c r="C138" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3">
       <c r="A139" t="s">
-        <v>245</v>
+        <v>252</v>
       </c>
       <c r="B139" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="140" spans="1:2">
+        <v>253</v>
+      </c>
+      <c r="C139" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3">
       <c r="A140" t="s">
-        <v>247</v>
+        <v>255</v>
       </c>
       <c r="B140" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="141" spans="1:2">
+        <v>256</v>
+      </c>
+      <c r="C140" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3">
       <c r="A141" t="s">
-        <v>249</v>
+        <v>258</v>
       </c>
       <c r="B141" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="142" spans="1:2">
+        <v>259</v>
+      </c>
+      <c r="C141" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3">
       <c r="A142" t="s">
-        <v>251</v>
+        <v>261</v>
       </c>
       <c r="B142" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="143" spans="1:2">
+        <v>262</v>
+      </c>
+      <c r="C142" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3">
       <c r="A143" t="s">
-        <v>253</v>
+        <v>264</v>
       </c>
       <c r="B143" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="144" spans="1:2">
+        <v>264</v>
+      </c>
+      <c r="C143" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3">
       <c r="A144" t="s">
-        <v>254</v>
+        <v>266</v>
       </c>
       <c r="B144" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="145" spans="1:2">
+        <v>266</v>
+      </c>
+      <c r="C144" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3">
       <c r="A145" t="s">
-        <v>255</v>
+        <v>268</v>
       </c>
       <c r="B145" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="146" spans="1:2">
+        <v>269</v>
+      </c>
+      <c r="C145" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3">
       <c r="A146" t="s">
-        <v>257</v>
+        <v>271</v>
       </c>
       <c r="B146" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="147" spans="1:2">
+        <v>272</v>
+      </c>
+      <c r="C146" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3">
       <c r="A147" t="s">
-        <v>259</v>
+        <v>274</v>
       </c>
       <c r="B147" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="148" spans="1:2">
+        <v>274</v>
+      </c>
+      <c r="C147" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3">
       <c r="A148" t="s">
-        <v>260</v>
+        <v>276</v>
       </c>
       <c r="B148" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="149" spans="1:2">
+        <v>276</v>
+      </c>
+      <c r="C148" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3">
       <c r="A149" t="s">
-        <v>261</v>
+        <v>278</v>
       </c>
       <c r="B149" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="150" spans="1:2">
+        <v>279</v>
+      </c>
+      <c r="C149" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3">
       <c r="A150" t="s">
-        <v>263</v>
+        <v>281</v>
       </c>
       <c r="B150" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="151" spans="1:2">
+        <v>282</v>
+      </c>
+      <c r="C150" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3">
       <c r="A151" t="s">
-        <v>265</v>
+        <v>284</v>
       </c>
       <c r="B151" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="152" spans="1:2">
+        <v>284</v>
+      </c>
+      <c r="C151" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3">
       <c r="A152" t="s">
-        <v>266</v>
+        <v>286</v>
       </c>
       <c r="B152" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="153" spans="1:2">
+        <v>287</v>
+      </c>
+      <c r="C152" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3">
       <c r="A153" t="s">
-        <v>268</v>
+        <v>289</v>
       </c>
       <c r="B153" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="154" spans="1:2">
+        <v>290</v>
+      </c>
+      <c r="C153" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3">
       <c r="A154" t="s">
-        <v>270</v>
+        <v>292</v>
       </c>
       <c r="B154" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="155" spans="1:2">
+        <v>292</v>
+      </c>
+      <c r="C154" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3">
       <c r="A155" t="s">
-        <v>271</v>
+        <v>294</v>
       </c>
       <c r="B155" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="156" spans="1:2">
+        <v>294</v>
+      </c>
+      <c r="C155" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3">
       <c r="A156" t="s">
-        <v>272</v>
+        <v>296</v>
       </c>
       <c r="B156" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="157" spans="1:2">
+        <v>296</v>
+      </c>
+      <c r="C156" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3">
       <c r="A157" t="s">
-        <v>273</v>
+        <v>298</v>
       </c>
       <c r="B157" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="158" spans="1:2">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3">
       <c r="A158" t="s">
-        <v>274</v>
+        <v>299</v>
       </c>
       <c r="B158" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="159" spans="1:2">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3">
       <c r="A159" t="s">
-        <v>275</v>
+        <v>300</v>
       </c>
       <c r="B159" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="160" spans="1:2">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3">
       <c r="A160" t="s">
-        <v>276</v>
+        <v>301</v>
       </c>
       <c r="B160" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="161" spans="1:2">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3">
       <c r="A161" t="s">
-        <v>278</v>
+        <v>303</v>
       </c>
       <c r="B161" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="162" spans="1:2">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3">
       <c r="A162" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="163" spans="1:2">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3">
       <c r="A163" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="164" spans="1:2">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3">
       <c r="A164" t="s">
-        <v>282</v>
+        <v>307</v>
       </c>
       <c r="B164" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="165" spans="1:2">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3">
       <c r="A165" t="s">
-        <v>283</v>
+        <v>308</v>
       </c>
       <c r="B165" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="166" spans="1:2">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3">
       <c r="A166" t="s">
-        <v>285</v>
+        <v>310</v>
       </c>
       <c r="B166" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="167" spans="1:2">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3">
       <c r="A167" t="s">
-        <v>287</v>
+        <v>312</v>
       </c>
       <c r="B167" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="168" spans="1:2">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3">
       <c r="A168" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="169" spans="1:2">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3">
       <c r="A169" t="s">
-        <v>290</v>
+        <v>315</v>
       </c>
       <c r="B169" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="170" spans="1:2">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3">
       <c r="A170" t="s">
-        <v>292</v>
+        <v>317</v>
       </c>
       <c r="B170" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="171" spans="1:2">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3">
       <c r="A171" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="172" spans="1:2">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3">
       <c r="A172" t="s">
-        <v>295</v>
+        <v>320</v>
       </c>
       <c r="B172" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="173" spans="1:2">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3">
       <c r="A173" t="s">
-        <v>297</v>
+        <v>322</v>
       </c>
       <c r="B173" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="174" spans="1:2">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3">
       <c r="A174" t="s">
-        <v>299</v>
+        <v>324</v>
       </c>
       <c r="B174" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="175" spans="1:2">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3">
       <c r="A175" t="s">
-        <v>301</v>
+        <v>326</v>
       </c>
       <c r="B175" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="176" spans="1:2">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3">
       <c r="A176" t="s">
-        <v>302</v>
+        <v>327</v>
       </c>
       <c r="B176" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="177" spans="1:2">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3">
       <c r="A177" t="s">
-        <v>304</v>
+        <v>329</v>
       </c>
       <c r="B177" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="178" spans="1:2">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3">
       <c r="A178" t="s">
-        <v>305</v>
+        <v>330</v>
       </c>
       <c r="B178" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="179" spans="1:2">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3">
       <c r="A179" t="s">
-        <v>307</v>
+        <v>332</v>
       </c>
       <c r="B179" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="180" spans="1:2">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3">
       <c r="A180" t="s">
-        <v>309</v>
+        <v>334</v>
       </c>
       <c r="B180" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="181" spans="1:2">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3">
       <c r="A181" t="s">
-        <v>311</v>
+        <v>336</v>
       </c>
       <c r="B181" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="182" spans="1:2">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3">
       <c r="A182" t="s">
-        <v>312</v>
+        <v>337</v>
       </c>
       <c r="B182" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="183" spans="1:2">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3">
       <c r="A183" t="s">
-        <v>313</v>
+        <v>338</v>
       </c>
       <c r="B183" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="184" spans="1:2">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3">
       <c r="A184" t="s">
-        <v>314</v>
+        <v>339</v>
       </c>
       <c r="B184" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="185" spans="1:2">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3">
       <c r="A185" t="s">
-        <v>315</v>
+        <v>340</v>
       </c>
       <c r="B185" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="186" spans="1:2">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3">
       <c r="A186" t="s">
-        <v>317</v>
+        <v>342</v>
       </c>
       <c r="B186" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="187" spans="1:2">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3">
       <c r="A187" t="s">
-        <v>319</v>
+        <v>344</v>
       </c>
       <c r="B187" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="188" spans="1:2">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3">
       <c r="A188" t="s">
-        <v>321</v>
+        <v>346</v>
       </c>
       <c r="B188" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="189" spans="1:2">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3">
       <c r="A189" t="s">
-        <v>322</v>
+        <v>347</v>
       </c>
       <c r="B189" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="190" spans="1:2">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3">
       <c r="A190" t="s">
-        <v>324</v>
+        <v>349</v>
       </c>
       <c r="B190" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="191" spans="1:2">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3">
       <c r="A191" t="s">
-        <v>326</v>
+        <v>351</v>
       </c>
       <c r="B191" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="192" spans="1:2">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3">
       <c r="A192" t="s">
-        <v>328</v>
+        <v>353</v>
       </c>
       <c r="B192" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="193" spans="1:2">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3">
       <c r="A193" t="s">
-        <v>330</v>
+        <v>355</v>
       </c>
       <c r="B193" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="194" spans="1:2">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3">
       <c r="A194" t="s">
-        <v>331</v>
+        <v>356</v>
       </c>
       <c r="B194" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="195" spans="1:2">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3">
       <c r="A195" t="s">
-        <v>332</v>
+        <v>357</v>
       </c>
       <c r="B195" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="196" spans="1:2">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3">
       <c r="A196" t="s">
-        <v>333</v>
+        <v>358</v>
       </c>
       <c r="B196" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="197" spans="1:2">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="197" spans="1:3">
       <c r="A197" t="s">
-        <v>335</v>
+        <v>360</v>
       </c>
       <c r="B197" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="198" spans="1:2">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="198" spans="1:3">
       <c r="A198" t="s">
-        <v>336</v>
+        <v>361</v>
       </c>
       <c r="B198" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="199" spans="1:2">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="199" spans="1:3">
       <c r="A199" t="s">
-        <v>337</v>
+        <v>362</v>
       </c>
       <c r="B199" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="200" spans="1:2">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3">
       <c r="A200" t="s">
-        <v>338</v>
+        <v>363</v>
       </c>
       <c r="B200" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="201" spans="1:2">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="201" spans="1:3">
       <c r="A201" t="s">
-        <v>339</v>
+        <v>364</v>
       </c>
       <c r="B201" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="202" spans="1:2">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="202" spans="1:3">
       <c r="A202" t="s">
-        <v>340</v>
+        <v>365</v>
       </c>
       <c r="B202" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="203" spans="1:2">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="203" spans="1:3">
       <c r="A203" t="s">
-        <v>341</v>
+        <v>366</v>
       </c>
       <c r="B203" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="204" spans="1:2">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="204" spans="1:3">
       <c r="A204" t="s">
-        <v>342</v>
+        <v>367</v>
       </c>
       <c r="B204" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="205" spans="1:2">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="205" spans="1:3">
       <c r="A205" t="s">
-        <v>343</v>
+        <v>368</v>
       </c>
       <c r="B205" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="206" spans="1:2">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="206" spans="1:3">
       <c r="A206" t="s">
-        <v>344</v>
+        <v>369</v>
       </c>
       <c r="B206" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="207" spans="1:2">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="207" spans="1:3">
       <c r="A207" t="s">
-        <v>345</v>
+        <v>370</v>
       </c>
       <c r="B207" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="208" spans="1:2">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="208" spans="1:3">
       <c r="A208" t="s">
-        <v>346</v>
+        <v>371</v>
       </c>
       <c r="B208" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="209" spans="1:2">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="209" spans="1:3">
       <c r="A209" t="s">
-        <v>347</v>
+        <v>372</v>
       </c>
       <c r="B209" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="210" spans="1:2">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="210" spans="1:3">
       <c r="A210" t="s">
-        <v>348</v>
+        <v>373</v>
       </c>
       <c r="B210" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="211" spans="1:2">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="211" spans="1:3">
       <c r="A211" t="s">
-        <v>349</v>
+        <v>374</v>
       </c>
       <c r="B211" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="212" spans="1:2">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="212" spans="1:3">
       <c r="A212" t="s">
-        <v>350</v>
+        <v>375</v>
       </c>
       <c r="B212" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="213" spans="1:2">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="213" spans="1:3">
       <c r="A213" t="s">
-        <v>351</v>
+        <v>376</v>
       </c>
       <c r="B213" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="214" spans="1:2">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="214" spans="1:3">
       <c r="A214" t="s">
-        <v>352</v>
+        <v>377</v>
       </c>
       <c r="B214" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="215" spans="1:2">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="215" spans="1:3">
       <c r="A215" t="s">
-        <v>353</v>
+        <v>378</v>
       </c>
       <c r="B215" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="216" spans="1:2">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="216" spans="1:3">
       <c r="A216" t="s">
-        <v>354</v>
+        <v>379</v>
       </c>
       <c r="B216" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="217" spans="1:2">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="217" spans="1:3">
       <c r="A217" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="218" spans="1:2">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="218" spans="1:3">
       <c r="A218" t="s">
-        <v>356</v>
+        <v>381</v>
       </c>
       <c r="B218" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="219" spans="1:2">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="219" spans="1:3">
       <c r="A219" t="s">
-        <v>357</v>
+        <v>382</v>
       </c>
       <c r="B219" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="220" spans="1:2">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="220" spans="1:3">
       <c r="A220" t="s">
-        <v>358</v>
+        <v>383</v>
       </c>
       <c r="B220" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="221" spans="1:2">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="221" spans="1:3">
       <c r="A221" t="s">
-        <v>360</v>
+        <v>385</v>
       </c>
       <c r="B221" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="222" spans="1:2">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="222" spans="1:3">
       <c r="A222" t="s">
-        <v>362</v>
+        <v>387</v>
       </c>
       <c r="B222" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="223" spans="1:2">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="223" spans="1:3">
       <c r="A223" t="s">
-        <v>363</v>
+        <v>388</v>
       </c>
       <c r="B223" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="224" spans="1:2">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="224" spans="1:3">
       <c r="A224" t="s">
-        <v>364</v>
+        <v>389</v>
       </c>
       <c r="B224" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="225" spans="1:2">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="225" spans="1:3">
       <c r="A225" t="s">
-        <v>366</v>
+        <v>391</v>
       </c>
       <c r="B225" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="226" spans="1:2">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="226" spans="1:3">
       <c r="A226" t="s">
-        <v>368</v>
+        <v>393</v>
       </c>
       <c r="B226" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="227" spans="1:2">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="227" spans="1:3">
       <c r="A227" t="s">
-        <v>370</v>
+        <v>395</v>
       </c>
       <c r="B227" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="228" spans="1:2">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="228" spans="1:3">
       <c r="A228" t="s">
-        <v>371</v>
+        <v>396</v>
       </c>
       <c r="B228" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="229" spans="1:2">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="229" spans="1:3">
       <c r="A229" t="s">
-        <v>372</v>
+        <v>397</v>
       </c>
       <c r="B229" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="230" spans="1:2">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="230" spans="1:3">
       <c r="A230" t="s">
-        <v>373</v>
+        <v>398</v>
       </c>
       <c r="B230" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="231" spans="1:2">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="231" spans="1:3">
       <c r="A231" t="s">
-        <v>374</v>
+        <v>399</v>
       </c>
       <c r="B231" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="232" spans="1:2">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="232" spans="1:3">
       <c r="A232" t="s">
-        <v>375</v>
+        <v>400</v>
       </c>
       <c r="B232" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="233" spans="1:2">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="233" spans="1:3">
       <c r="A233" t="s">
-        <v>376</v>
+        <v>401</v>
       </c>
       <c r="B233" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="234" spans="1:2">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="234" spans="1:3">
       <c r="A234" t="s">
-        <v>377</v>
+        <v>402</v>
       </c>
       <c r="B234" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="235" spans="1:2">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="235" spans="1:3">
       <c r="A235" t="s">
-        <v>378</v>
+        <v>403</v>
       </c>
       <c r="B235" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="236" spans="1:2">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="236" spans="1:3">
       <c r="A236" t="s">
-        <v>379</v>
+        <v>404</v>
       </c>
       <c r="B236" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="237" spans="1:2">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="237" spans="1:3">
       <c r="A237" t="s">
-        <v>380</v>
+        <v>405</v>
       </c>
       <c r="B237" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="238" spans="1:2">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="238" spans="1:3">
       <c r="A238" t="s">
-        <v>381</v>
+        <v>406</v>
       </c>
       <c r="B238" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="239" spans="1:2">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="239" spans="1:3">
       <c r="A239" t="s">
-        <v>382</v>
+        <v>407</v>
       </c>
       <c r="B239" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="240" spans="1:2">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="240" spans="1:3">
       <c r="A240" t="s">
-        <v>383</v>
+        <v>408</v>
       </c>
       <c r="B240" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="241" spans="1:2">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="241" spans="1:3">
       <c r="A241" t="s">
-        <v>384</v>
+        <v>409</v>
       </c>
       <c r="B241" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="242" spans="1:2">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="242" spans="1:3">
       <c r="A242" t="s">
-        <v>385</v>
+        <v>410</v>
       </c>
       <c r="B242" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="243" spans="1:2">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="243" spans="1:3">
       <c r="A243" t="s">
-        <v>386</v>
+        <v>411</v>
       </c>
       <c r="B243" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="244" spans="1:2">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="244" spans="1:3">
       <c r="A244" t="s">
-        <v>387</v>
+        <v>412</v>
       </c>
       <c r="B244" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="245" spans="1:2">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="245" spans="1:3">
       <c r="A245" t="s">
-        <v>388</v>
+        <v>413</v>
       </c>
       <c r="B245" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="246" spans="1:2">
+        <v>413</v>
+      </c>
+      <c r="C245" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="246" spans="1:3">
       <c r="A246" t="s">
-        <v>389</v>
+        <v>415</v>
       </c>
       <c r="B246" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="247" spans="1:2">
+        <v>415</v>
+      </c>
+      <c r="C246" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="247" spans="1:3">
       <c r="A247" t="s">
-        <v>390</v>
+        <v>417</v>
       </c>
       <c r="B247" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="248" spans="1:2">
+        <v>417</v>
+      </c>
+      <c r="C247" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="248" spans="1:3">
       <c r="A248" t="s">
-        <v>391</v>
+        <v>419</v>
       </c>
       <c r="B248" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="249" spans="1:2">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="249" spans="1:3">
       <c r="A249" t="s">
-        <v>392</v>
+        <v>420</v>
       </c>
       <c r="B249" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="250" spans="1:2">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="250" spans="1:3">
       <c r="A250" t="s">
-        <v>393</v>
+        <v>421</v>
       </c>
       <c r="B250" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="251" spans="1:2">
+        <v>421</v>
+      </c>
+      <c r="C250" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="251" spans="1:3">
       <c r="A251" t="s">
-        <v>394</v>
+        <v>423</v>
       </c>
       <c r="B251" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="252" spans="1:2">
+        <v>423</v>
+      </c>
+      <c r="C251" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="252" spans="1:3">
       <c r="A252" t="s">
-        <v>395</v>
+        <v>425</v>
       </c>
       <c r="B252" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="253" spans="1:2">
+        <v>425</v>
+      </c>
+      <c r="C252" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="253" spans="1:3">
       <c r="A253" t="s">
-        <v>396</v>
+        <v>427</v>
       </c>
       <c r="B253" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="254" spans="1:2">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="254" spans="1:3">
       <c r="A254" t="s">
-        <v>397</v>
+        <v>428</v>
       </c>
       <c r="B254" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="255" spans="1:2">
+        <v>428</v>
+      </c>
+      <c r="C254" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="255" spans="1:3">
       <c r="A255" t="s">
-        <v>398</v>
+        <v>430</v>
       </c>
       <c r="B255" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="256" spans="1:2">
+        <v>430</v>
+      </c>
+      <c r="C255" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="256" spans="1:3">
       <c r="A256" t="s">
-        <v>399</v>
+        <v>432</v>
       </c>
       <c r="B256" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="257" spans="1:2">
+        <v>432</v>
+      </c>
+      <c r="C256" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="257" spans="1:3">
       <c r="A257" t="s">
-        <v>400</v>
+        <v>434</v>
       </c>
       <c r="B257" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="258" spans="1:2">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="258" spans="1:3">
       <c r="A258" t="s">
-        <v>401</v>
+        <v>435</v>
       </c>
       <c r="B258" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="259" spans="1:2">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="259" spans="1:3">
       <c r="A259" t="s">
-        <v>402</v>
+        <v>436</v>
       </c>
       <c r="B259" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="260" spans="1:2">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="260" spans="1:3">
       <c r="A260" t="s">
-        <v>404</v>
+        <v>438</v>
       </c>
       <c r="B260" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="261" spans="1:2">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="261" spans="1:3">
       <c r="A261" t="s">
-        <v>406</v>
+        <v>440</v>
       </c>
       <c r="B261" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="262" spans="1:2">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="262" spans="1:3">
       <c r="A262" t="s">
-        <v>408</v>
+        <v>442</v>
       </c>
       <c r="B262" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="263" spans="1:2">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="263" spans="1:3">
       <c r="A263" t="s">
-        <v>410</v>
+        <v>444</v>
       </c>
       <c r="B263" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="264" spans="1:2">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="264" spans="1:3">
       <c r="A264" t="s">
-        <v>412</v>
+        <v>446</v>
       </c>
       <c r="B264" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="265" spans="1:2">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="265" spans="1:3">
       <c r="A265" t="s">
-        <v>414</v>
+        <v>448</v>
       </c>
       <c r="B265" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="266" spans="1:2">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="266" spans="1:3">
       <c r="A266" t="s">
-        <v>416</v>
+        <v>450</v>
       </c>
       <c r="B266" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="267" spans="1:2">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="267" spans="1:3">
       <c r="A267" t="s">
-        <v>418</v>
+        <v>452</v>
       </c>
       <c r="B267" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="268" spans="1:2">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="268" spans="1:3">
       <c r="A268" t="s">
-        <v>419</v>
+        <v>453</v>
       </c>
       <c r="B268" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="269" spans="1:2">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="269" spans="1:3">
       <c r="A269" t="s">
-        <v>420</v>
+        <v>454</v>
       </c>
       <c r="B269" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="270" spans="1:2">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="270" spans="1:3">
       <c r="A270" t="s">
-        <v>421</v>
+        <v>455</v>
       </c>
       <c r="B270" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="271" spans="1:2">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="271" spans="1:3">
       <c r="A271" t="s">
-        <v>422</v>
+        <v>456</v>
       </c>
       <c r="B271" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="272" spans="1:2">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="272" spans="1:3">
       <c r="A272" t="s">
-        <v>423</v>
+        <v>457</v>
       </c>
       <c r="B272" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="273" spans="1:2">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="273" spans="1:3">
       <c r="A273" t="s">
-        <v>424</v>
+        <v>458</v>
       </c>
       <c r="B273" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="274" spans="1:2">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="274" spans="1:3">
       <c r="A274" t="s">
-        <v>425</v>
+        <v>459</v>
       </c>
       <c r="B274" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="275" spans="1:2">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="275" spans="1:3">
       <c r="A275" t="s">
-        <v>426</v>
+        <v>460</v>
       </c>
       <c r="B275" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="276" spans="1:2">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="276" spans="1:3">
       <c r="A276" t="s">
-        <v>427</v>
+        <v>461</v>
       </c>
       <c r="B276" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="277" spans="1:2">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="277" spans="1:3">
       <c r="A277" t="s">
-        <v>428</v>
+        <v>462</v>
       </c>
       <c r="B277" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="278" spans="1:2">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="278" spans="1:3">
       <c r="A278" t="s">
-        <v>429</v>
+        <v>463</v>
       </c>
       <c r="B278" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="279" spans="1:2">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="279" spans="1:3">
       <c r="A279" t="s">
-        <v>430</v>
+        <v>464</v>
       </c>
       <c r="B279" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="280" spans="1:2">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="280" spans="1:3">
       <c r="A280" t="s">
-        <v>431</v>
+        <v>465</v>
       </c>
       <c r="B280" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="281" spans="1:2">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="281" spans="1:3">
       <c r="A281" t="s">
-        <v>432</v>
+        <v>466</v>
       </c>
       <c r="B281" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="282" spans="1:2">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="282" spans="1:3">
       <c r="A282" t="s">
-        <v>433</v>
+        <v>467</v>
       </c>
       <c r="B282" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="283" spans="1:2">
+        <v>467</v>
+      </c>
+      <c r="C282" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="283" spans="1:3">
       <c r="A283" t="s">
-        <v>434</v>
+        <v>469</v>
       </c>
       <c r="B283" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="284" spans="1:2">
+        <v>469</v>
+      </c>
+      <c r="C283" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="284" spans="1:3">
       <c r="A284" t="s">
-        <v>435</v>
+        <v>471</v>
       </c>
       <c r="B284" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="285" spans="1:2">
+        <v>471</v>
+      </c>
+      <c r="C284" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="285" spans="1:3">
       <c r="A285" t="s">
-        <v>436</v>
+        <v>473</v>
       </c>
       <c r="B285" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="286" spans="1:2">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="286" spans="1:3">
       <c r="A286" t="s">
-        <v>437</v>
+        <v>474</v>
       </c>
       <c r="B286" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="287" spans="1:2">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="287" spans="1:3">
       <c r="A287" t="s">
-        <v>438</v>
+        <v>475</v>
       </c>
       <c r="B287" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="288" spans="1:2">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="288" spans="1:3">
       <c r="A288" t="s">
-        <v>439</v>
+        <v>476</v>
       </c>
       <c r="B288" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="289" spans="1:2">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="289" spans="1:3">
       <c r="A289" t="s">
-        <v>440</v>
+        <v>477</v>
       </c>
       <c r="B289" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="290" spans="1:2">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="290" spans="1:3">
       <c r="A290" t="s">
-        <v>441</v>
+        <v>478</v>
       </c>
       <c r="B290" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="291" spans="1:2">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="291" spans="1:3">
       <c r="A291" t="s">
-        <v>442</v>
+        <v>479</v>
       </c>
       <c r="B291" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="292" spans="1:2">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="292" spans="1:3">
       <c r="A292" t="s">
-        <v>443</v>
+        <v>480</v>
       </c>
       <c r="B292" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="293" spans="1:2">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="293" spans="1:3">
       <c r="A293" t="s">
-        <v>444</v>
+        <v>481</v>
       </c>
       <c r="B293" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="294" spans="1:2">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="294" spans="1:3">
       <c r="A294" t="s">
-        <v>445</v>
+        <v>482</v>
       </c>
       <c r="B294" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="295" spans="1:2">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="295" spans="1:3">
       <c r="A295" t="s">
-        <v>446</v>
+        <v>483</v>
       </c>
       <c r="B295" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="296" spans="1:2">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="296" spans="1:3">
       <c r="A296" t="s">
-        <v>448</v>
+        <v>485</v>
       </c>
       <c r="B296" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="297" spans="1:2">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="297" spans="1:3">
       <c r="A297" t="s">
-        <v>449</v>
+        <v>486</v>
       </c>
       <c r="B297" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="298" spans="1:2">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="298" spans="1:3">
       <c r="A298" t="s">
-        <v>450</v>
+        <v>487</v>
       </c>
       <c r="B298" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="299" spans="1:2">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="299" spans="1:3">
       <c r="A299" t="s">
-        <v>451</v>
+        <v>488</v>
       </c>
       <c r="B299" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="300" spans="1:2">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="300" spans="1:3">
       <c r="A300" t="s">
-        <v>453</v>
+        <v>490</v>
       </c>
       <c r="B300" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="301" spans="1:2">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="301" spans="1:3">
       <c r="A301" t="s">
-        <v>455</v>
+        <v>492</v>
       </c>
       <c r="B301" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="302" spans="1:2">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="302" spans="1:3">
       <c r="A302" t="s">
-        <v>457</v>
+        <v>494</v>
       </c>
       <c r="B302" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="303" spans="1:2">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="303" spans="1:3">
       <c r="A303" t="s">
-        <v>458</v>
+        <v>495</v>
       </c>
       <c r="B303" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="304" spans="1:2">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="304" spans="1:3">
       <c r="A304" t="s">
-        <v>459</v>
+        <v>496</v>
       </c>
       <c r="B304" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="305" spans="1:2">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="305" spans="1:3">
       <c r="A305" t="s">
-        <v>460</v>
+        <v>497</v>
       </c>
       <c r="B305" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="306" spans="1:2">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="306" spans="1:3">
       <c r="A306" t="s">
-        <v>461</v>
+        <v>498</v>
       </c>
       <c r="B306" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="307" spans="1:2">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="307" spans="1:3">
       <c r="A307" t="s">
-        <v>462</v>
+        <v>499</v>
       </c>
       <c r="B307" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="308" spans="1:2">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="308" spans="1:3">
       <c r="A308" t="s">
-        <v>463</v>
+        <v>500</v>
       </c>
       <c r="B308" t="s">
-        <v>463</v>
+        <v>500</v>
       </c>
     </row>
   </sheetData>

--- a/Translation Script/Map118.xlsx
+++ b/Translation Script/Map118.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="501">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="498">
   <si>
     <t>自動実行</t>
   </si>
@@ -204,7 +204,7 @@
   </si>
   <si>
     <t>\n&lt;\n[3]&gt;Squish-...♥
-They're so soft you're about to melt aren't you?♥
+They're so soft, your cares just melt away right?♥
 Feels so good- Feels so good-♥</t>
   </si>
   <si>
@@ -811,12 +811,8 @@
 うん。</t>
   </si>
   <si>
-    <t>\n&lt;Ako&gt;あたしは中立。
-だからお金くれる方の味方。というかお金の味方。うん。</t>
-  </si>
-  <si>
     <t>\n&lt;Ako&gt;I'm a neutral party.
-I side with whoever's got money.\nI'm a buddy for hire. Yeah.</t>
+I side with whoever's got money.\nI'm a buddy for hire, mmhm!</t>
   </si>
   <si>
     <t>\n&lt;アーコ&gt;分かった。売ってあげる。
@@ -858,14 +854,27 @@
     <t>食糧庫ドア</t>
   </si>
   <si>
+    <t>Door to the Food Warehouse</t>
+  </si>
+  <si>
     <t>食糧庫の鍵を開けた！</t>
+  </si>
+  <si>
+    <t>Used the key to the Food Warehouse!</t>
   </si>
   <si>
     <t>食糧庫のようだ。
 鍵がかかっている・・・</t>
   </si>
   <si>
+    <t>It seems to lead to the Food Warehouse.
+It's locked...</t>
+  </si>
+  <si>
     <t>いわ</t>
+  </si>
+  <si>
+    <t>Boulder</t>
   </si>
   <si>
     <t xml:space="preserve"> &lt;enemy:145&gt;</t>
@@ -947,13 +956,9 @@
 私の部屋があるもの。</t>
   </si>
   <si>
-    <t>\n&lt;\n[3]&gt;ちょっと待ちなさい。
-2階はダメよ。私の部屋があるもの。</t>
-  </si>
-  <si>
     <t>\n&lt;\n[3]&gt;Hold it right there.
-There's nothing on the second floor.
-Just my room.</t>
+The second floor is off limits.
+My room is up there.</t>
   </si>
   <si>
     <t>\n&lt;\n[3]&gt;そうねぇ。
@@ -961,13 +966,9 @@
 ちょっとしたゲームをしましょ。</t>
   </si>
   <si>
-    <t>\n&lt;\n[3]&gt;そうねぇ。
-どうしても通りたいって言うなら・・・ちょっとしたゲームをしましょ。</t>
-  </si>
-  <si>
-    <t>\n&lt;\n[3]&gt;OK.
+    <t>\n&lt;\n[3]&gt;Actually, that gives me an idea-
 If you really want to get by...
-Let's play a little game.</t>
+Then let's play a little game.</t>
   </si>
   <si>
     <t>\n&lt;\n[3]&gt;あんたが後ろから私を突いて、射精を我慢するの♥
@@ -975,12 +976,9 @@
 そうね、3回でいいわ。</t>
   </si>
   <si>
-    <t>\n&lt;\n[3]&gt;あんたが後ろから私を突いて、射精を我慢するの♥
-ゆっくり奥まで入れて抜くだけ♥そうね、3回でいいわ。</t>
-  </si>
-  <si>
-    <t>\n&lt;\n[3]&gt;You're going to poke me from behind, and try to hold
-back your cum♥ Slowly put it in all the way,\nthen back out♥ 3 times should be good.</t>
+    <t>\n&lt;\n[3]&gt;Thrust into my lovely rear, and try to resist squirting inside♥
+Just a couple of slow, lovely strokes inside my pussy♥
+I'd say about...3 times should be plenty.</t>
   </si>
   <si>
     <t>\n&lt;\n[3]&gt;3回入れて射精しなかったらあんたの勝ち。
@@ -988,13 +986,9 @@
 どう？これぐらいなら余裕でしょ？</t>
   </si>
   <si>
-    <t>\n&lt;\n[3]&gt;3回入れて射精しなかったらあんたの勝ち。
-我慢できずにイっちゃったらあんたの負け。どう？これぐらいなら余裕でしょ？</t>
-  </si>
-  <si>
     <t>\n&lt;\n[3]&gt;If you don't ejaculate after 3 thrusts, then you win.
 If you can't hold it back, then you lose.
-Hm? Is that fair?</t>
+Well? Does that sound fair?</t>
   </si>
   <si>
     <t>\n&lt;\n[3]&gt;たったの3回、おちんちんをオマンコに入れるだけよ。
@@ -1002,13 +996,9 @@
 超簡単なゲーム♥大サービスよ。</t>
   </si>
   <si>
-    <t>\n&lt;\n[3]&gt;たったの3回、おちんちんをオマンコに入れるだけよ。
-私からは手を出さない。超簡単なゲーム♥大サービスよ。</t>
-  </si>
-  <si>
-    <t>\n&lt;\n[3]&gt;Just put your dick in my pussy 3 times.
-Don't take your hands off of me.
-Super simple game♥</t>
+    <t>\n&lt;\n[3]&gt;Just insert your dick in my pussy 3 times.
+And don't take your hands off of me.
+Super simple game♥ Consider it a freebie from me to you~</t>
   </si>
   <si>
     <t>\n&lt;\n[3]&gt;ほらおいで♥
@@ -1016,13 +1006,9 @@
 まさか、怖気づいちゃった訳じゃないわよねぇ？くすくす♥</t>
   </si>
   <si>
-    <t>\n&lt;\n[3]&gt;ほらおいで♥
-大丈夫。たったの3回よ♥まさか、怖気づいちゃった訳じゃないわよねぇ？くすくす♥</t>
-  </si>
-  <si>
-    <t>\n&lt;\n[3]&gt;Come here♥ It's all right. Just 3 times♥
-What, you're not scared, are you?
-Hee hee♥</t>
+    <t>\n&lt;\n[3]&gt;Come little closer my dear♥
+It's all right. It's just 3 times♥
+You're not scared, are you? Teehee♥</t>
   </si>
   <si>
     <t>\n&lt;\n[3]&gt;あはっ♥どうしたの驚いた顔しちゃって♥
@@ -1181,7 +1167,7 @@
   </si>
   <si>
     <t>\n&lt;\n[3]&gt;Weakling♥
-Can't even endure 3 pumps? Hee hee♥
+Can't even endure 3 pumps? Teehee♥
 Well, come back if you want to try again.</t>
   </si>
   <si>
@@ -3178,55 +3164,55 @@
       <c r="B105" t="s">
         <v>199</v>
       </c>
-      <c r="C105" t="s">
-        <v>200</v>
-      </c>
     </row>
     <row r="106" spans="1:3">
       <c r="A106" t="s">
+        <v>200</v>
+      </c>
+      <c r="B106" t="s">
         <v>201</v>
-      </c>
-      <c r="B106" t="s">
-        <v>202</v>
       </c>
     </row>
     <row r="107" spans="1:3">
       <c r="A107" t="s">
+        <v>202</v>
+      </c>
+      <c r="B107" t="s">
         <v>203</v>
-      </c>
-      <c r="B107" t="s">
-        <v>204</v>
       </c>
     </row>
     <row r="108" spans="1:3">
       <c r="A108" t="s">
+        <v>204</v>
+      </c>
+      <c r="B108" t="s">
         <v>205</v>
-      </c>
-      <c r="B108" t="s">
-        <v>206</v>
       </c>
     </row>
     <row r="109" spans="1:3">
       <c r="A109" t="s">
+        <v>206</v>
+      </c>
+      <c r="B109" t="s">
         <v>207</v>
-      </c>
-      <c r="B109" t="s">
-        <v>208</v>
       </c>
     </row>
     <row r="110" spans="1:3">
       <c r="A110" t="s">
+        <v>208</v>
+      </c>
+      <c r="B110" t="s">
         <v>209</v>
-      </c>
-      <c r="B110" t="s">
-        <v>210</v>
       </c>
     </row>
     <row r="111" spans="1:3">
       <c r="A111" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B111" t="s">
+        <v>210</v>
+      </c>
+      <c r="C111" t="s">
         <v>211</v>
       </c>
     </row>
@@ -3237,196 +3223,196 @@
       <c r="B112" t="s">
         <v>212</v>
       </c>
+      <c r="C112" t="s">
+        <v>213</v>
+      </c>
     </row>
     <row r="113" spans="1:3">
       <c r="A113" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B113" t="s">
-        <v>213</v>
+        <v>214</v>
+      </c>
+      <c r="C113" t="s">
+        <v>215</v>
       </c>
     </row>
     <row r="114" spans="1:3">
       <c r="A114" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="B114" t="s">
-        <v>214</v>
+        <v>216</v>
+      </c>
+      <c r="C114" t="s">
+        <v>217</v>
       </c>
     </row>
     <row r="115" spans="1:3">
       <c r="A115" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="B115" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
     </row>
     <row r="116" spans="1:3">
       <c r="A116" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="B116" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
     </row>
     <row r="117" spans="1:3">
       <c r="A117" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="B117" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
     </row>
     <row r="118" spans="1:3">
       <c r="A118" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="B118" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
     </row>
     <row r="119" spans="1:3">
       <c r="A119" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="B119" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
     </row>
     <row r="120" spans="1:3">
       <c r="A120" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="B120" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
     </row>
     <row r="121" spans="1:3">
       <c r="A121" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="B121" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
     </row>
     <row r="122" spans="1:3">
       <c r="A122" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="B122" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
     </row>
     <row r="123" spans="1:3">
       <c r="A123" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="B123" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
     </row>
     <row r="124" spans="1:3">
       <c r="A124" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="B124" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
     </row>
     <row r="125" spans="1:3">
       <c r="A125" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="B125" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
     </row>
     <row r="126" spans="1:3">
       <c r="A126" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="B126" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
     </row>
     <row r="127" spans="1:3">
       <c r="A127" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="B127" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
     </row>
     <row r="128" spans="1:3">
       <c r="A128" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="B128" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
     </row>
     <row r="129" spans="1:3">
       <c r="A129" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="B129" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
     </row>
     <row r="130" spans="1:3">
       <c r="A130" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
     </row>
     <row r="131" spans="1:3">
       <c r="A131" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="B131" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
     </row>
     <row r="132" spans="1:3">
       <c r="A132" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
     </row>
     <row r="133" spans="1:3">
       <c r="A133" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
     </row>
     <row r="134" spans="1:3">
       <c r="A134" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="B134" t="s">
-        <v>238</v>
-      </c>
-      <c r="C134" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
     </row>
     <row r="135" spans="1:3">
       <c r="A135" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="B135" t="s">
-        <v>241</v>
-      </c>
-      <c r="C135" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
     </row>
     <row r="136" spans="1:3">
       <c r="A136" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="B136" t="s">
-        <v>244</v>
-      </c>
-      <c r="C136" t="s">
         <v>245</v>
       </c>
     </row>
@@ -3437,1454 +3423,1445 @@
       <c r="B137" t="s">
         <v>247</v>
       </c>
-      <c r="C137" t="s">
-        <v>248</v>
-      </c>
     </row>
     <row r="138" spans="1:3">
       <c r="A138" t="s">
+        <v>248</v>
+      </c>
+      <c r="B138" t="s">
         <v>249</v>
-      </c>
-      <c r="B138" t="s">
-        <v>250</v>
-      </c>
-      <c r="C138" t="s">
-        <v>251</v>
       </c>
     </row>
     <row r="139" spans="1:3">
       <c r="A139" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="B139" t="s">
-        <v>253</v>
-      </c>
-      <c r="C139" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
     </row>
     <row r="140" spans="1:3">
       <c r="A140" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="B140" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="C140" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
     </row>
     <row r="141" spans="1:3">
       <c r="A141" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="B141" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="C141" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
     </row>
     <row r="142" spans="1:3">
       <c r="A142" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="B142" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="C142" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
     </row>
     <row r="143" spans="1:3">
       <c r="A143" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="B143" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="C143" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
     </row>
     <row r="144" spans="1:3">
       <c r="A144" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="B144" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="C144" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
     </row>
     <row r="145" spans="1:3">
       <c r="A145" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="B145" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="C145" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
     </row>
     <row r="146" spans="1:3">
       <c r="A146" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="B146" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="C146" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
     </row>
     <row r="147" spans="1:3">
       <c r="A147" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="B147" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="C147" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
     </row>
     <row r="148" spans="1:3">
       <c r="A148" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="B148" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="C148" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
     </row>
     <row r="149" spans="1:3">
       <c r="A149" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="B149" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="C149" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
     </row>
     <row r="150" spans="1:3">
       <c r="A150" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="B150" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="C150" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
     </row>
     <row r="151" spans="1:3">
       <c r="A151" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="B151" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="C151" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
     </row>
     <row r="152" spans="1:3">
       <c r="A152" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="B152" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="C152" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
     </row>
     <row r="153" spans="1:3">
       <c r="A153" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="B153" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="C153" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
     </row>
     <row r="154" spans="1:3">
       <c r="A154" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="B154" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="C154" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
     </row>
     <row r="155" spans="1:3">
       <c r="A155" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="B155" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="C155" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
     </row>
     <row r="156" spans="1:3">
       <c r="A156" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="B156" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="C156" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
     </row>
     <row r="157" spans="1:3">
       <c r="A157" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="B157" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
     </row>
     <row r="158" spans="1:3">
       <c r="A158" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="B158" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
     </row>
     <row r="159" spans="1:3">
       <c r="A159" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="B159" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
     </row>
     <row r="160" spans="1:3">
       <c r="A160" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="B160" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
     </row>
     <row r="161" spans="1:3">
       <c r="A161" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="B161" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
     </row>
     <row r="162" spans="1:3">
       <c r="A162" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
     </row>
     <row r="163" spans="1:3">
       <c r="A163" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
     </row>
     <row r="164" spans="1:3">
       <c r="A164" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="B164" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
     </row>
     <row r="165" spans="1:3">
       <c r="A165" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="B165" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
     </row>
     <row r="166" spans="1:3">
       <c r="A166" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="B166" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
     </row>
     <row r="167" spans="1:3">
       <c r="A167" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="B167" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
     </row>
     <row r="168" spans="1:3">
       <c r="A168" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
     </row>
     <row r="169" spans="1:3">
       <c r="A169" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="B169" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
     </row>
     <row r="170" spans="1:3">
       <c r="A170" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="B170" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
     </row>
     <row r="171" spans="1:3">
       <c r="A171" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
     </row>
     <row r="172" spans="1:3">
       <c r="A172" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="B172" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
     </row>
     <row r="173" spans="1:3">
       <c r="A173" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="B173" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
     </row>
     <row r="174" spans="1:3">
       <c r="A174" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="B174" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
     </row>
     <row r="175" spans="1:3">
       <c r="A175" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="B175" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
     </row>
     <row r="176" spans="1:3">
       <c r="A176" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="B176" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
     </row>
     <row r="177" spans="1:3">
       <c r="A177" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="B177" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
     </row>
     <row r="178" spans="1:3">
       <c r="A178" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="B178" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
     </row>
     <row r="179" spans="1:3">
       <c r="A179" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="B179" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
     </row>
     <row r="180" spans="1:3">
       <c r="A180" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="B180" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
     </row>
     <row r="181" spans="1:3">
       <c r="A181" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="B181" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
     </row>
     <row r="182" spans="1:3">
       <c r="A182" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="B182" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
     </row>
     <row r="183" spans="1:3">
       <c r="A183" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="B183" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
     </row>
     <row r="184" spans="1:3">
       <c r="A184" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="B184" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
     </row>
     <row r="185" spans="1:3">
       <c r="A185" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="B185" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
     </row>
     <row r="186" spans="1:3">
       <c r="A186" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="B186" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
     </row>
     <row r="187" spans="1:3">
       <c r="A187" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="B187" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
     </row>
     <row r="188" spans="1:3">
       <c r="A188" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="B188" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
     </row>
     <row r="189" spans="1:3">
       <c r="A189" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="B189" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
     </row>
     <row r="190" spans="1:3">
       <c r="A190" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="B190" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
     </row>
     <row r="191" spans="1:3">
       <c r="A191" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="B191" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
     </row>
     <row r="192" spans="1:3">
       <c r="A192" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="B192" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
     </row>
     <row r="193" spans="1:3">
       <c r="A193" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="B193" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
     </row>
     <row r="194" spans="1:3">
       <c r="A194" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="B194" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
     </row>
     <row r="195" spans="1:3">
       <c r="A195" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="B195" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
     </row>
     <row r="196" spans="1:3">
       <c r="A196" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="B196" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
     </row>
     <row r="197" spans="1:3">
       <c r="A197" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="B197" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
     </row>
     <row r="198" spans="1:3">
       <c r="A198" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="B198" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
     </row>
     <row r="199" spans="1:3">
       <c r="A199" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="B199" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
     </row>
     <row r="200" spans="1:3">
       <c r="A200" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="B200" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
     </row>
     <row r="201" spans="1:3">
       <c r="A201" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="B201" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
     </row>
     <row r="202" spans="1:3">
       <c r="A202" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="B202" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
     </row>
     <row r="203" spans="1:3">
       <c r="A203" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="B203" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
     </row>
     <row r="204" spans="1:3">
       <c r="A204" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="B204" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
     </row>
     <row r="205" spans="1:3">
       <c r="A205" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="B205" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
     </row>
     <row r="206" spans="1:3">
       <c r="A206" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="B206" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
     </row>
     <row r="207" spans="1:3">
       <c r="A207" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="B207" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
     </row>
     <row r="208" spans="1:3">
       <c r="A208" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="B208" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
     </row>
     <row r="209" spans="1:3">
       <c r="A209" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="B209" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
     </row>
     <row r="210" spans="1:3">
       <c r="A210" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="B210" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
     </row>
     <row r="211" spans="1:3">
       <c r="A211" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="B211" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
     </row>
     <row r="212" spans="1:3">
       <c r="A212" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="B212" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
     </row>
     <row r="213" spans="1:3">
       <c r="A213" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="B213" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
     </row>
     <row r="214" spans="1:3">
       <c r="A214" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="B214" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
     </row>
     <row r="215" spans="1:3">
       <c r="A215" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="B215" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
     </row>
     <row r="216" spans="1:3">
       <c r="A216" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="B216" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
     </row>
     <row r="217" spans="1:3">
       <c r="A217" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
     </row>
     <row r="218" spans="1:3">
       <c r="A218" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="B218" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
     </row>
     <row r="219" spans="1:3">
       <c r="A219" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="B219" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
     </row>
     <row r="220" spans="1:3">
       <c r="A220" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="B220" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
     </row>
     <row r="221" spans="1:3">
       <c r="A221" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="B221" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
     </row>
     <row r="222" spans="1:3">
       <c r="A222" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="B222" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
     </row>
     <row r="223" spans="1:3">
       <c r="A223" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="B223" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
     </row>
     <row r="224" spans="1:3">
       <c r="A224" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="B224" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
     </row>
     <row r="225" spans="1:3">
       <c r="A225" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="B225" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
     </row>
     <row r="226" spans="1:3">
       <c r="A226" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="B226" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
     </row>
     <row r="227" spans="1:3">
       <c r="A227" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="B227" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
     </row>
     <row r="228" spans="1:3">
       <c r="A228" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="B228" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
     </row>
     <row r="229" spans="1:3">
       <c r="A229" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="B229" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
     </row>
     <row r="230" spans="1:3">
       <c r="A230" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="B230" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
     </row>
     <row r="231" spans="1:3">
       <c r="A231" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="B231" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
     </row>
     <row r="232" spans="1:3">
       <c r="A232" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="B232" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
     </row>
     <row r="233" spans="1:3">
       <c r="A233" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="B233" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
     </row>
     <row r="234" spans="1:3">
       <c r="A234" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="B234" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
     </row>
     <row r="235" spans="1:3">
       <c r="A235" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="B235" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
     </row>
     <row r="236" spans="1:3">
       <c r="A236" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="B236" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
     </row>
     <row r="237" spans="1:3">
       <c r="A237" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="B237" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
     </row>
     <row r="238" spans="1:3">
       <c r="A238" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="B238" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
     </row>
     <row r="239" spans="1:3">
       <c r="A239" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="B239" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
     </row>
     <row r="240" spans="1:3">
       <c r="A240" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="B240" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
     </row>
     <row r="241" spans="1:3">
       <c r="A241" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="B241" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
     </row>
     <row r="242" spans="1:3">
       <c r="A242" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="B242" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
     </row>
     <row r="243" spans="1:3">
       <c r="A243" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="B243" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
     </row>
     <row r="244" spans="1:3">
       <c r="A244" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="B244" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
     </row>
     <row r="245" spans="1:3">
       <c r="A245" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="B245" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="C245" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
     </row>
     <row r="246" spans="1:3">
       <c r="A246" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="B246" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="C246" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
     </row>
     <row r="247" spans="1:3">
       <c r="A247" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="B247" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="C247" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
     </row>
     <row r="248" spans="1:3">
       <c r="A248" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="B248" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
     </row>
     <row r="249" spans="1:3">
       <c r="A249" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="B249" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
     </row>
     <row r="250" spans="1:3">
       <c r="A250" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="B250" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="C250" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
     </row>
     <row r="251" spans="1:3">
       <c r="A251" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="B251" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="C251" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
     </row>
     <row r="252" spans="1:3">
       <c r="A252" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="B252" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="C252" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
     </row>
     <row r="253" spans="1:3">
       <c r="A253" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="B253" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
     </row>
     <row r="254" spans="1:3">
       <c r="A254" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="B254" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="C254" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
     </row>
     <row r="255" spans="1:3">
       <c r="A255" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="B255" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="C255" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
     </row>
     <row r="256" spans="1:3">
       <c r="A256" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="B256" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="C256" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
     </row>
     <row r="257" spans="1:3">
       <c r="A257" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="B257" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
     </row>
     <row r="258" spans="1:3">
       <c r="A258" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="B258" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
     </row>
     <row r="259" spans="1:3">
       <c r="A259" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="B259" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
     </row>
     <row r="260" spans="1:3">
       <c r="A260" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="B260" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
     </row>
     <row r="261" spans="1:3">
       <c r="A261" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="B261" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
     </row>
     <row r="262" spans="1:3">
       <c r="A262" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="B262" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
     </row>
     <row r="263" spans="1:3">
       <c r="A263" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="B263" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
     </row>
     <row r="264" spans="1:3">
       <c r="A264" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="B264" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
     </row>
     <row r="265" spans="1:3">
       <c r="A265" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="B265" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
     </row>
     <row r="266" spans="1:3">
       <c r="A266" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="B266" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
     </row>
     <row r="267" spans="1:3">
       <c r="A267" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="B267" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
     </row>
     <row r="268" spans="1:3">
       <c r="A268" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="B268" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
     </row>
     <row r="269" spans="1:3">
       <c r="A269" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="B269" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
     </row>
     <row r="270" spans="1:3">
       <c r="A270" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="B270" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
     </row>
     <row r="271" spans="1:3">
       <c r="A271" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="B271" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
     </row>
     <row r="272" spans="1:3">
       <c r="A272" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="B272" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
     </row>
     <row r="273" spans="1:3">
       <c r="A273" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="B273" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
     </row>
     <row r="274" spans="1:3">
       <c r="A274" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="B274" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
     </row>
     <row r="275" spans="1:3">
       <c r="A275" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="B275" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
     </row>
     <row r="276" spans="1:3">
       <c r="A276" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="B276" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
     </row>
     <row r="277" spans="1:3">
       <c r="A277" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="B277" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
     </row>
     <row r="278" spans="1:3">
       <c r="A278" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="B278" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
     </row>
     <row r="279" spans="1:3">
       <c r="A279" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="B279" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
     </row>
     <row r="280" spans="1:3">
       <c r="A280" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="B280" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
     </row>
     <row r="281" spans="1:3">
       <c r="A281" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="B281" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
     </row>
     <row r="282" spans="1:3">
       <c r="A282" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="B282" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="C282" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
     </row>
     <row r="283" spans="1:3">
       <c r="A283" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="B283" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="C283" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
     </row>
     <row r="284" spans="1:3">
       <c r="A284" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="B284" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="C284" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
     </row>
     <row r="285" spans="1:3">
       <c r="A285" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="B285" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
     </row>
     <row r="286" spans="1:3">
       <c r="A286" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="B286" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
     </row>
     <row r="287" spans="1:3">
       <c r="A287" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="B287" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
     </row>
     <row r="288" spans="1:3">
       <c r="A288" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="B288" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
     </row>
     <row r="289" spans="1:3">
       <c r="A289" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="B289" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
     </row>
     <row r="290" spans="1:3">
       <c r="A290" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="B290" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
     </row>
     <row r="291" spans="1:3">
       <c r="A291" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="B291" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
     </row>
     <row r="292" spans="1:3">
       <c r="A292" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="B292" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
     </row>
     <row r="293" spans="1:3">
       <c r="A293" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="B293" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
     </row>
     <row r="294" spans="1:3">
       <c r="A294" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="B294" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
     </row>
     <row r="295" spans="1:3">
       <c r="A295" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="B295" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
     </row>
     <row r="296" spans="1:3">
       <c r="A296" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="B296" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
     </row>
     <row r="297" spans="1:3">
       <c r="A297" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="B297" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
     </row>
     <row r="298" spans="1:3">
       <c r="A298" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="B298" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
     </row>
     <row r="299" spans="1:3">
       <c r="A299" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="B299" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
     </row>
     <row r="300" spans="1:3">
       <c r="A300" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="B300" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
     </row>
     <row r="301" spans="1:3">
       <c r="A301" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="B301" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
     </row>
     <row r="302" spans="1:3">
       <c r="A302" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="B302" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
     </row>
     <row r="303" spans="1:3">
       <c r="A303" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="B303" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
     </row>
     <row r="304" spans="1:3">
       <c r="A304" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="B304" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
     </row>
     <row r="305" spans="1:3">
       <c r="A305" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="B305" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
     </row>
     <row r="306" spans="1:3">
       <c r="A306" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="B306" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
     </row>
     <row r="307" spans="1:3">
       <c r="A307" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="B307" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
     </row>
     <row r="308" spans="1:3">
       <c r="A308" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="B308" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
     </row>
   </sheetData>
